--- a/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Singapore_Prices_appended.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Singapore_Prices_appended.xlsx
@@ -503,580 +503,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>151.8709677419355</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>155.4193548387097</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>64.93548387096774</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>153.6774193548387</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>156.6451612903226</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>152.0645161290323</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>153.741935483871</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>155.4193548387097</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>153.5161290322581</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>156.1290322580645</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>147.1290322580645</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>158.3548387096774</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>152.0967741935484</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>159.2903225806452</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>137.3870967741935</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>154.1290322580645</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
         <v>155.8709677419355</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>145.1290322580645</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>153.0322580645161</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>155.1612903225806</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>157.2258064516129</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>156.0322580645161</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>153.6451612903226</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>158</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>140.9354838709677</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>155.7096774193548</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>152.0967741935484</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>153.2903225806452</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>155.6451612903226</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>158</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>150.8709677419355</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
         <v>152.0967741935484</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
         <v>156.0322580645161</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
         <v>143.4838709677419</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
         <v>153.0967741935484</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
         <v>150.9677419354839</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
         <v>153.3225806451613</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
         <v>151.9677419354839</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
         <v>152.7741935483871</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>43</v>
       </c>
     </row>

--- a/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Singapore_Prices_appended.xlsx
+++ b/scrapers/TA/scrapes/1. Run/Excel_per_Region/Region_Singapore_Prices_appended.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TobiasRordorf/Desktop/UNI/MBI HSG/4. Semester/Python/GitHub/hotelierchallenge/scrapers/TA/scrapes/1. Run/Excel_per_Region/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DA91C-2172-9546-8EC4-170F1D2249F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20520" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Locality</t>
   </si>
@@ -146,13 +163,16 @@
   </si>
   <si>
     <t>2019-04-17 12-02</t>
+  </si>
+  <si>
+    <t>Delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +182,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,25 +228,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +331,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,14 +576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,239 +600,325 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>151.8709677419355</v>
+        <v>158.35483870967741</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>143.48387096774189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <f>((B3-$B$2)/$B$2)+1</f>
+        <v>0.9060908535343245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>150.87096774193549</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D41" si="0">((B4-$B$2)/$B$2)+1</f>
+        <v>0.95273986555306589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>140.93548387096769</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88999796292523903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>147.12903225806451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.92910979832959872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>152.09677419354841</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96048074964351215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>153.09677419354841</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96679568140150762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>153.51612903225811</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96944387859034464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>151.87096774193549</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>155.4193548387097</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>64.93548387096774</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>153.6774193548387</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95905479731106136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>153.741935483871</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97086983092279511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>153.0322580645161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96638826644937859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>152.06451612903231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96027704216744791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>145.12903225806451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91647993481360768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94723976369932783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99775921776329202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>153.32258064516131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9682216337339582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>153.67741935483869</v>
+      </c>
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>156.6451612903226</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97046241597066607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>152.09677419354841</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96048074964351215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>155.16129032258061</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97983295986962704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>156.0322580645161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9853330617233651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>156.64516129032259</v>
+      </c>
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>152.0645161290323</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>153.741935483871</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>155.4193548387097</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>153.5161290322581</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>156.1290322580645</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>147.1290322580645</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>158.3548387096774</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>152.0967741935484</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>159.2903225806452</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>137.3870967741935</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>154.1290322580645</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>155.8709677419355</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>145.1290322580645</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>153.0322580645161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>155.1612903225806</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>157.2258064516129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98920350376858845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -761,206 +928,287 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9853330617233651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
-        <v>153.6451612903226</v>
+        <v>150.9677419354839</v>
       </c>
       <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95335098798125917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>156.12903225806451</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98594418415155838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>155.64516129032259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98288857201059288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>155.41935483870969</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98146261967814241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>155.87096774193549</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98431452434304345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>155.41935483870969</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98146261967814241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>151.9677419354839</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95966591973925464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>154.12903225806451</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97331432063556733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99775921776329202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>157.2258064516129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99287023833774701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>137.38709677419351</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86759014055815831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>159.29032258064521</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0059075168058671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>153.29032258064521</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96801792625789407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>64.935483870967744</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41006314931758003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>152.09677419354841</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96048074964351215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>155.70967741935479</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98329598696272125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>152.7741935483871</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96475860664086377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>153.64516129032259</v>
+      </c>
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>140.9354838709677</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>155.7096774193548</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>152.0967741935484</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>153.2903225806452</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>155.6451612903226</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>150.8709677419355</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>152.0967741935484</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>150</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>156.0322580645161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>143.4838709677419</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>153.0967741935484</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>150.9677419354839</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>153.3225806451613</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>151.9677419354839</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>152.7741935483871</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97025870849460183</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D41" xr:uid="{44273388-5E03-FD4D-8379-770B44CED300}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+      <sortCondition ref="C1:C41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>